--- a/data/next_matches.xlsx
+++ b/data/next_matches.xlsx
@@ -530,20 +530,20 @@
         <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="K2" t="n">
-        <v>0.356149703398581</v>
+        <v>0.4531159350503595</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2999549492275261</v>
+        <v>0.2886108896874401</v>
       </c>
       <c r="M2" t="n">
-        <v>0.343895347373893</v>
+        <v>0.2582731752622004</v>
       </c>
     </row>
     <row r="3">
@@ -577,20 +577,20 @@
         <v>12</v>
       </c>
       <c r="H3" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3062480208864412</v>
+        <v>0.402853452916936</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2975737682808696</v>
+        <v>0.2968449359255265</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3961782108326892</v>
+        <v>0.3003016111575375</v>
       </c>
     </row>
     <row r="4">
@@ -624,20 +624,20 @@
         <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3177013041942565</v>
+        <v>0.3839363386973125</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2986971473415487</v>
+        <v>0.2986715593661768</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3836015484641948</v>
+        <v>0.3173921019365109</v>
       </c>
     </row>
     <row r="5">
@@ -671,20 +671,20 @@
         <v>12</v>
       </c>
       <c r="H5" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6626982805687976</v>
+        <v>0.7370284274857614</v>
       </c>
       <c r="L5" t="n">
-        <v>0.213029283082699</v>
+        <v>0.1740048197335406</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1242724363485034</v>
+        <v>0.08896675278069799</v>
       </c>
     </row>
     <row r="6">
@@ -718,20 +718,20 @@
         <v>12</v>
       </c>
       <c r="H6" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="K6" t="n">
-        <v>0.252384035830397</v>
+        <v>0.3149816440051558</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2869906739969947</v>
+        <v>0.2984631683554931</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4606252901726082</v>
+        <v>0.386555187639351</v>
       </c>
     </row>
     <row r="7">
@@ -765,20 +765,20 @@
         <v>12</v>
       </c>
       <c r="H7" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4509732924523768</v>
+        <v>0.5415243426275533</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2890554650714647</v>
+        <v>0.2638900534712827</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2599712424761586</v>
+        <v>0.194585603901164</v>
       </c>
     </row>
     <row r="8">
@@ -812,20 +812,20 @@
         <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4587420736983545</v>
+        <v>0.5556436022005398</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2874060073467593</v>
+        <v>0.2588905328525377</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2538519189548862</v>
+        <v>0.1854658649469225</v>
       </c>
     </row>
     <row r="9">
@@ -839,7 +839,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
@@ -859,20 +859,20 @@
         <v>12</v>
       </c>
       <c r="H9" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2025893784874459</v>
+        <v>0.2777105193964481</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2679457171813002</v>
+        <v>0.2931178604909558</v>
       </c>
       <c r="M9" t="n">
-        <v>0.529464904331254</v>
+        <v>0.4291716201125961</v>
       </c>
     </row>
     <row r="10">
@@ -906,20 +906,20 @@
         <v>12</v>
       </c>
       <c r="H10" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3992959751602048</v>
+        <v>0.5180812175017635</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2972446063232084</v>
+        <v>0.2715870722378135</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3034594185165869</v>
+        <v>0.210331710260423</v>
       </c>
     </row>
     <row r="11">
@@ -953,20 +953,20 @@
         <v>13</v>
       </c>
       <c r="H11" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2824197073203774</v>
+        <v>0.3638521909857262</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2940241521677989</v>
+        <v>0.2997734899661345</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4235561405118238</v>
+        <v>0.3363743190481393</v>
       </c>
     </row>
     <row r="12">
@@ -1000,20 +1000,20 @@
         <v>13</v>
       </c>
       <c r="H12" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3639150021101805</v>
+        <v>0.4330499963066171</v>
       </c>
       <c r="L12" t="n">
-        <v>0.299771447951403</v>
+        <v>0.2924578254950244</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3363135499384166</v>
+        <v>0.2744921781983586</v>
       </c>
     </row>
     <row r="13">
@@ -1047,20 +1047,20 @@
         <v>13</v>
       </c>
       <c r="H13" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2173709565702432</v>
+        <v>0.3148958415017771</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2746670558004005</v>
+        <v>0.2984554581752977</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5079619876293563</v>
+        <v>0.3866487003229252</v>
       </c>
     </row>
     <row r="14">
@@ -1094,20 +1094,20 @@
         <v>13</v>
       </c>
       <c r="H14" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="K14" t="n">
-        <v>0.330361630750354</v>
+        <v>0.447852967222834</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2995259627481548</v>
+        <v>0.2896886539752694</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3701124065014911</v>
+        <v>0.2624583788018968</v>
       </c>
     </row>
     <row r="15">
@@ -1141,20 +1141,20 @@
         <v>13</v>
       </c>
       <c r="H15" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2512857421614116</v>
+        <v>0.3349646286219266</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2866748702863424</v>
+        <v>0.2997237174158995</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4620393875522461</v>
+        <v>0.3653116539621739</v>
       </c>
     </row>
     <row r="16">
@@ -1188,20 +1188,20 @@
         <v>13</v>
       </c>
       <c r="H16" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="K16" t="n">
-        <v>0.632451436694234</v>
+        <v>0.7223620511863406</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2273161344860943</v>
+        <v>0.1821199574133063</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1402324288196717</v>
+        <v>0.09551799140035311</v>
       </c>
     </row>
     <row r="17">
@@ -1235,20 +1235,20 @@
         <v>13</v>
       </c>
       <c r="H17" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2675777437295694</v>
+        <v>0.3589861183120739</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2909256709632952</v>
+        <v>0.299904130647946</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4414965853071353</v>
+        <v>0.3411097510399801</v>
       </c>
     </row>
     <row r="18">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1282,20 +1282,20 @@
         <v>13</v>
       </c>
       <c r="H18" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3213115812980072</v>
+        <v>0.3890222720871253</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2989768318037683</v>
+        <v>0.2982535789235269</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3797115868982245</v>
+        <v>0.3127241489893479</v>
       </c>
     </row>
     <row r="19">
@@ -1329,20 +1329,20 @@
         <v>13</v>
       </c>
       <c r="H19" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3822043256309495</v>
+        <v>0.4900851445685245</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2988013487688345</v>
+        <v>0.2797348029345725</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3189943256002161</v>
+        <v>0.230180052496903</v>
       </c>
     </row>
     <row r="20">
@@ -1376,20 +1376,20 @@
         <v>14</v>
       </c>
       <c r="H20" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3088664291349795</v>
+        <v>0.3886838752163818</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2978627706423893</v>
+        <v>0.2982830853151908</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3932708002226313</v>
+        <v>0.3130330394684274</v>
       </c>
     </row>
     <row r="21">
@@ -1423,20 +1423,20 @@
         <v>14</v>
       </c>
       <c r="H21" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="K21" t="n">
-        <v>0.320083199294975</v>
+        <v>0.4129355071574853</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2988856024259502</v>
+        <v>0.295575242044855</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3810311982790748</v>
+        <v>0.2914892507976597</v>
       </c>
     </row>
     <row r="22">
@@ -1470,20 +1470,20 @@
         <v>14</v>
       </c>
       <c r="H22" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5753441658825544</v>
+        <v>0.66577365232568</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2514785417533227</v>
+        <v>0.2115225423751734</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1731772923641228</v>
+        <v>0.1227038052991466</v>
       </c>
     </row>
     <row r="23">
@@ -1517,20 +1517,20 @@
         <v>14</v>
       </c>
       <c r="H23" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5840470838635829</v>
+        <v>0.6859613648618297</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2480477670387773</v>
+        <v>0.201392793313417</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1679051490976398</v>
+        <v>0.1126458418247533</v>
       </c>
     </row>
     <row r="24">
@@ -1564,20 +1564,20 @@
         <v>14</v>
       </c>
       <c r="H24" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3288470130178157</v>
+        <v>0.4248421560878669</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2994489835107782</v>
+        <v>0.2938217988311077</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3717040034714062</v>
+        <v>0.2813360450810255</v>
       </c>
     </row>
     <row r="25">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
@@ -1611,20 +1611,20 @@
         <v>14</v>
       </c>
       <c r="H25" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1776985465420768</v>
+        <v>0.2729158196345758</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2542988146737134</v>
+        <v>0.2921223246579149</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5680026387842098</v>
+        <v>0.4349618557075094</v>
       </c>
     </row>
     <row r="26">
@@ -1658,20 +1658,20 @@
         <v>14</v>
       </c>
       <c r="H26" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2945986028891768</v>
+        <v>0.3688134523977321</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2960495047678606</v>
+        <v>0.299584591366027</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4093518923429625</v>
+        <v>0.331601956236241</v>
       </c>
     </row>
     <row r="27">
@@ -1705,20 +1705,20 @@
         <v>14</v>
       </c>
       <c r="H27" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2422316697715521</v>
+        <v>0.3170629113885295</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2839038759412599</v>
+        <v>0.2986440322834234</v>
       </c>
       <c r="M27" t="n">
-        <v>0.473864454287188</v>
+        <v>0.3842930563280471</v>
       </c>
     </row>
     <row r="28">
@@ -1752,20 +1752,20 @@
         <v>14</v>
       </c>
       <c r="H28" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="K28" t="n">
-        <v>0.4705333939406984</v>
+        <v>0.5651124824367904</v>
       </c>
       <c r="L28" t="n">
-        <v>0.2847077565288973</v>
+        <v>0.2553902677180018</v>
       </c>
       <c r="M28" t="n">
-        <v>0.2447588495304043</v>
+        <v>0.1794972498452079</v>
       </c>
     </row>
     <row r="29">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1795,20 +1795,20 @@
         <v>15</v>
       </c>
       <c r="H29" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="K29" t="n">
-        <v>0.6037077886580023</v>
+        <v>0.6934363031210466</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2399572626249495</v>
+        <v>0.1975389425067082</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1563349487170481</v>
+        <v>0.1090247543722451</v>
       </c>
     </row>
     <row r="30">
@@ -1838,20 +1838,20 @@
         <v>15</v>
       </c>
       <c r="H30" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="K30" t="n">
-        <v>0.2477474734435445</v>
+        <v>0.3031794525056381</v>
       </c>
       <c r="L30" t="n">
-        <v>0.2856278281128866</v>
+        <v>0.2972103324084565</v>
       </c>
       <c r="M30" t="n">
-        <v>0.4666246984435689</v>
+        <v>0.3996102150859053</v>
       </c>
     </row>
     <row r="31">
@@ -1881,20 +1881,20 @@
         <v>15</v>
       </c>
       <c r="H31" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="K31" t="n">
-        <v>0.277576964005797</v>
+        <v>0.3645831619337666</v>
       </c>
       <c r="L31" t="n">
-        <v>0.2930911314023135</v>
+        <v>0.2997491682939183</v>
       </c>
       <c r="M31" t="n">
-        <v>0.4293319045918895</v>
+        <v>0.3356676697723152</v>
       </c>
     </row>
     <row r="32">
@@ -1924,20 +1924,20 @@
         <v>15</v>
       </c>
       <c r="H32" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="K32" t="n">
-        <v>0.251940908792474</v>
+        <v>0.3618718608753802</v>
       </c>
       <c r="L32" t="n">
-        <v>0.2868637783086184</v>
+        <v>0.2998332380894085</v>
       </c>
       <c r="M32" t="n">
-        <v>0.4611953128989076</v>
+        <v>0.3382949010352113</v>
       </c>
     </row>
     <row r="33">
@@ -1967,20 +1967,20 @@
         <v>15</v>
       </c>
       <c r="H33" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="K33" t="n">
-        <v>0.3503646017633681</v>
+        <v>0.4363954691244269</v>
       </c>
       <c r="L33" t="n">
-        <v>0.2999998405484209</v>
+        <v>0.2918663893412641</v>
       </c>
       <c r="M33" t="n">
-        <v>0.349635557688211</v>
+        <v>0.271738141534309</v>
       </c>
     </row>
     <row r="34">
@@ -2010,20 +2010,20 @@
         <v>15</v>
       </c>
       <c r="H34" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1243659486201259</v>
+        <v>0.1795008133044339</v>
       </c>
       <c r="L34" t="n">
-        <v>0.2131185022372391</v>
+        <v>0.2553924129912179</v>
       </c>
       <c r="M34" t="n">
-        <v>0.6625155491426351</v>
+        <v>0.5651067737043483</v>
       </c>
     </row>
     <row r="35">
@@ -2053,20 +2053,20 @@
         <v>15</v>
       </c>
       <c r="H35" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="K35" t="n">
-        <v>0.3375533956871659</v>
+        <v>0.4095536923853208</v>
       </c>
       <c r="L35" t="n">
-        <v>0.2998112688897247</v>
+        <v>0.2960234661498939</v>
       </c>
       <c r="M35" t="n">
-        <v>0.3626353354231095</v>
+        <v>0.2944228414647853</v>
       </c>
     </row>
     <row r="36">
@@ -2096,20 +2096,20 @@
         <v>15</v>
       </c>
       <c r="H36" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="K36" t="n">
-        <v>0.2229499808886081</v>
+        <v>0.2862257007061377</v>
       </c>
       <c r="L36" t="n">
-        <v>0.2769576248055877</v>
+        <v>0.2947058404859763</v>
       </c>
       <c r="M36" t="n">
-        <v>0.5000923943058042</v>
+        <v>0.419068458807886</v>
       </c>
     </row>
     <row r="37">
@@ -2139,20 +2139,20 @@
         <v>15</v>
       </c>
       <c r="H37" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="K37" t="n">
-        <v>0.2536885497360499</v>
+        <v>0.3358087729054711</v>
       </c>
       <c r="L37" t="n">
-        <v>0.287360162515039</v>
+        <v>0.2997541256413697</v>
       </c>
       <c r="M37" t="n">
-        <v>0.458951287748911</v>
+        <v>0.3644371014531592</v>
       </c>
     </row>
     <row r="38">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2182,20 +2182,20 @@
         <v>16</v>
       </c>
       <c r="H38" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="K38" t="n">
-        <v>0.581061933173072</v>
+        <v>0.6579325980223248</v>
       </c>
       <c r="L38" t="n">
-        <v>0.2492351322758204</v>
+        <v>0.2153447863737219</v>
       </c>
       <c r="M38" t="n">
-        <v>0.1697029345511076</v>
+        <v>0.1267226156039533</v>
       </c>
     </row>
     <row r="39">
@@ -2225,20 +2225,20 @@
         <v>16</v>
       </c>
       <c r="H39" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="K39" t="n">
-        <v>0.4491393652405288</v>
+        <v>0.5683767740545603</v>
       </c>
       <c r="L39" t="n">
-        <v>0.2894296672287635</v>
+        <v>0.2541567432361149</v>
       </c>
       <c r="M39" t="n">
-        <v>0.2614309675307077</v>
+        <v>0.1774664827093247</v>
       </c>
     </row>
     <row r="40">
@@ -2268,20 +2268,20 @@
         <v>16</v>
       </c>
       <c r="H40" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="K40" t="n">
-        <v>0.3813648805347902</v>
+        <v>0.4419735500203869</v>
       </c>
       <c r="L40" t="n">
-        <v>0.2988619387538578</v>
+        <v>0.2908353305835192</v>
       </c>
       <c r="M40" t="n">
-        <v>0.319773180711352</v>
+        <v>0.267191119396094</v>
       </c>
     </row>
     <row r="41">
@@ -2311,20 +2311,20 @@
         <v>16</v>
       </c>
       <c r="H41" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="K41" t="n">
-        <v>0.244930841426862</v>
+        <v>0.353558918983135</v>
       </c>
       <c r="L41" t="n">
-        <v>0.2847616007059766</v>
+        <v>0.2999848654811215</v>
       </c>
       <c r="M41" t="n">
-        <v>0.4703075578671613</v>
+        <v>0.3464562155357436</v>
       </c>
     </row>
     <row r="42">
@@ -2354,20 +2354,20 @@
         <v>16</v>
       </c>
       <c r="H42" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="K42" t="n">
-        <v>0.4949077459603468</v>
+        <v>0.5819247042812947</v>
       </c>
       <c r="L42" t="n">
-        <v>0.2784156210158474</v>
+        <v>0.2488930891697105</v>
       </c>
       <c r="M42" t="n">
-        <v>0.2266766330238058</v>
+        <v>0.1691822065489947</v>
       </c>
     </row>
     <row r="43">
@@ -2397,20 +2397,20 @@
         <v>16</v>
       </c>
       <c r="H43" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="K43" t="n">
-        <v>0.5328181404424852</v>
+        <v>0.6405471641402821</v>
       </c>
       <c r="L43" t="n">
-        <v>0.2668382132290814</v>
+        <v>0.2235885559188486</v>
       </c>
       <c r="M43" t="n">
-        <v>0.2003436463284334</v>
+        <v>0.1358642799408692</v>
       </c>
     </row>
     <row r="44">
@@ -2440,20 +2440,20 @@
         <v>16</v>
       </c>
       <c r="H44" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="K44" t="n">
-        <v>0.5513259151008053</v>
+        <v>0.6391095116887161</v>
       </c>
       <c r="L44" t="n">
-        <v>0.2604476337774382</v>
+        <v>0.2242557351214478</v>
       </c>
       <c r="M44" t="n">
-        <v>0.1882264511217565</v>
+        <v>0.1366347531898361</v>
       </c>
     </row>
     <row r="45">
@@ -2483,20 +2483,20 @@
         <v>16</v>
       </c>
       <c r="H45" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="K45" t="n">
-        <v>0.491391038272216</v>
+        <v>0.6012151245111216</v>
       </c>
       <c r="L45" t="n">
-        <v>0.279381135132907</v>
+        <v>0.2410085969617226</v>
       </c>
       <c r="M45" t="n">
-        <v>0.2292278265948771</v>
+        <v>0.1577762785271558</v>
       </c>
     </row>
     <row r="46">
@@ -2526,20 +2526,20 @@
         <v>16</v>
       </c>
       <c r="H46" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="K46" t="n">
-        <v>0.5905610690540367</v>
+        <v>0.6943307409019162</v>
       </c>
       <c r="L46" t="n">
-        <v>0.2454188385655047</v>
+        <v>0.197074135859993</v>
       </c>
       <c r="M46" t="n">
-        <v>0.1640200923804586</v>
+        <v>0.1085951232380908</v>
       </c>
     </row>
     <row r="47">
@@ -2569,20 +2569,20 @@
         <v>17</v>
       </c>
       <c r="H47" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="K47" t="n">
-        <v>0.1676791300709145</v>
+        <v>0.2268030566784131</v>
       </c>
       <c r="L47" t="n">
-        <v>0.2478971953990739</v>
+        <v>0.2784640866889463</v>
       </c>
       <c r="M47" t="n">
-        <v>0.5844236745300116</v>
+        <v>0.4947328566326405</v>
       </c>
     </row>
     <row r="48">
@@ -2612,20 +2612,20 @@
         <v>17</v>
       </c>
       <c r="H48" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="K48" t="n">
-        <v>0.254986295021276</v>
+        <v>0.3355476327014083</v>
       </c>
       <c r="L48" t="n">
-        <v>0.2877217226669794</v>
+        <v>0.2997449114135702</v>
       </c>
       <c r="M48" t="n">
-        <v>0.4572919823117447</v>
+        <v>0.3647074558850215</v>
       </c>
     </row>
     <row r="49">
@@ -2655,20 +2655,20 @@
         <v>17</v>
       </c>
       <c r="H49" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="K49" t="n">
-        <v>0.1143368845946346</v>
+        <v>0.1669455897152608</v>
       </c>
       <c r="L49" t="n">
-        <v>0.2031541438949196</v>
+        <v>0.2474065133883633</v>
       </c>
       <c r="M49" t="n">
-        <v>0.6825089715104458</v>
+        <v>0.5856478968963759</v>
       </c>
     </row>
     <row r="50">
@@ -2698,20 +2698,20 @@
         <v>17</v>
       </c>
       <c r="H50" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="K50" t="n">
-        <v>0.2375663329785541</v>
+        <v>0.302341694628348</v>
       </c>
       <c r="L50" t="n">
-        <v>0.2823565568893097</v>
+        <v>0.2971064280017619</v>
       </c>
       <c r="M50" t="n">
-        <v>0.4800771101321362</v>
+        <v>0.4005518773698901</v>
       </c>
     </row>
     <row r="51">
@@ -2741,20 +2741,20 @@
         <v>17</v>
       </c>
       <c r="H51" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="K51" t="n">
-        <v>0.3723603405207613</v>
+        <v>0.4861123115615761</v>
       </c>
       <c r="L51" t="n">
-        <v>0.2994155966962366</v>
+        <v>0.2807944105758127</v>
       </c>
       <c r="M51" t="n">
-        <v>0.3282240627830021</v>
+        <v>0.2330932778626112</v>
       </c>
     </row>
     <row r="52">
@@ -2784,20 +2784,20 @@
         <v>17</v>
       </c>
       <c r="H52" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="K52" t="n">
-        <v>0.1822811256607143</v>
+        <v>0.2324801858761895</v>
       </c>
       <c r="L52" t="n">
-        <v>0.2570458775618318</v>
+        <v>0.2805742044233857</v>
       </c>
       <c r="M52" t="n">
-        <v>0.560672996777454</v>
+        <v>0.4869456097004247</v>
       </c>
     </row>
     <row r="53">
@@ -2827,20 +2827,20 @@
         <v>17</v>
       </c>
       <c r="H53" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="K53" t="n">
-        <v>0.4375286794408304</v>
+        <v>0.5063826772091505</v>
       </c>
       <c r="L53" t="n">
-        <v>0.2916614514813434</v>
+        <v>0.2751341607497928</v>
       </c>
       <c r="M53" t="n">
-        <v>0.2708098690778262</v>
+        <v>0.2184831620410567</v>
       </c>
     </row>
     <row r="54">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
@@ -2870,20 +2870,20 @@
         <v>17</v>
       </c>
       <c r="H54" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="K54" t="n">
-        <v>0.186838829705529</v>
+        <v>0.2635991081887447</v>
       </c>
       <c r="L54" t="n">
-        <v>0.259669767107924</v>
+        <v>0.2899719787332461</v>
       </c>
       <c r="M54" t="n">
-        <v>0.553491403186547</v>
+        <v>0.4464289130780092</v>
       </c>
     </row>
     <row r="55">
@@ -2913,20 +2913,20 @@
         <v>17</v>
       </c>
       <c r="H55" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="K55" t="n">
-        <v>0.3142414241666144</v>
+        <v>0.4115320503920848</v>
       </c>
       <c r="L55" t="n">
-        <v>0.298395988655985</v>
+        <v>0.2957639670858812</v>
       </c>
       <c r="M55" t="n">
-        <v>0.3873625871774006</v>
+        <v>0.292703982522034</v>
       </c>
     </row>
     <row r="56">
@@ -2956,20 +2956,20 @@
         <v>18</v>
       </c>
       <c r="H56" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="K56" t="n">
-        <v>0.612359825101605</v>
+        <v>0.7104088154601076</v>
       </c>
       <c r="L56" t="n">
-        <v>0.2362516406913115</v>
+        <v>0.1885875848848679</v>
       </c>
       <c r="M56" t="n">
-        <v>0.1513885342070834</v>
+        <v>0.1010035996550245</v>
       </c>
     </row>
     <row r="57">
@@ -2999,20 +2999,20 @@
         <v>18</v>
       </c>
       <c r="H57" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="K57" t="n">
-        <v>0.387145003302335</v>
+        <v>0.4503307614644091</v>
       </c>
       <c r="L57" t="n">
-        <v>0.2984142282694122</v>
+        <v>0.2891872347610807</v>
       </c>
       <c r="M57" t="n">
-        <v>0.3144407684282527</v>
+        <v>0.2604820037745103</v>
       </c>
     </row>
     <row r="58">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
@@ -3042,20 +3042,20 @@
         <v>18</v>
       </c>
       <c r="H58" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="K58" t="n">
-        <v>0.239005273562289</v>
+        <v>0.3261012576417131</v>
       </c>
       <c r="L58" t="n">
-        <v>0.2828426406625225</v>
+        <v>0.2992942302930997</v>
       </c>
       <c r="M58" t="n">
-        <v>0.4781520857751886</v>
+        <v>0.3746045120651873</v>
       </c>
     </row>
     <row r="59">
@@ -3085,20 +3085,20 @@
         <v>18</v>
       </c>
       <c r="H59" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="K59" t="n">
-        <v>0.2709104041624246</v>
+        <v>0.3340576061705829</v>
       </c>
       <c r="L59" t="n">
-        <v>0.291683783741058</v>
+        <v>0.2996890299557777</v>
       </c>
       <c r="M59" t="n">
-        <v>0.4374058120965174</v>
+        <v>0.3662533638736394</v>
       </c>
     </row>
     <row r="60">
@@ -3128,20 +3128,20 @@
         <v>18</v>
       </c>
       <c r="H60" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="K60" t="n">
-        <v>0.1398906061293894</v>
+        <v>0.177093473124992</v>
       </c>
       <c r="L60" t="n">
-        <v>0.227029213014163</v>
+        <v>0.2539277795624904</v>
       </c>
       <c r="M60" t="n">
-        <v>0.6330801808564476</v>
+        <v>0.5689787473125176</v>
       </c>
     </row>
     <row r="61">
@@ -3171,20 +3171,20 @@
         <v>18</v>
       </c>
       <c r="H61" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="K61" t="n">
-        <v>0.4398450183442711</v>
+        <v>0.5326597612415938</v>
       </c>
       <c r="L61" t="n">
-        <v>0.2912353533155815</v>
+        <v>0.2668908754512689</v>
       </c>
       <c r="M61" t="n">
-        <v>0.2689196283401475</v>
+        <v>0.2004493633071374</v>
       </c>
     </row>
     <row r="62">
@@ -3214,20 +3214,20 @@
         <v>18</v>
       </c>
       <c r="H62" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="K62" t="n">
-        <v>0.2094697944022377</v>
+        <v>0.2686373398628029</v>
       </c>
       <c r="L62" t="n">
-        <v>0.2711950344970546</v>
+        <v>0.2911707041008661</v>
       </c>
       <c r="M62" t="n">
-        <v>0.5193351711007078</v>
+        <v>0.4401919560363311</v>
       </c>
     </row>
     <row r="63">
@@ -3257,20 +3257,20 @@
         <v>18</v>
       </c>
       <c r="H63" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="K63" t="n">
-        <v>0.4558394820590366</v>
+        <v>0.5414489164017655</v>
       </c>
       <c r="L63" t="n">
-        <v>0.2880343746905711</v>
+        <v>0.2639160410672272</v>
       </c>
       <c r="M63" t="n">
-        <v>0.2561261432503925</v>
+        <v>0.1946350425310073</v>
       </c>
     </row>
     <row r="64">
@@ -3300,20 +3300,20 @@
         <v>18</v>
       </c>
       <c r="H64" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="K64" t="n">
-        <v>0.2750997307830179</v>
+        <v>0.382823046300213</v>
       </c>
       <c r="L64" t="n">
-        <v>0.2925849805033717</v>
+        <v>0.29875572188721</v>
       </c>
       <c r="M64" t="n">
-        <v>0.4323152887136105</v>
+        <v>0.3184212318125771</v>
       </c>
     </row>
     <row r="65">
@@ -3343,20 +3343,20 @@
         <v>19</v>
       </c>
       <c r="H65" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="K65" t="n">
-        <v>0.1594013710949317</v>
+        <v>0.2282078227753239</v>
       </c>
       <c r="L65" t="n">
-        <v>0.2421788517393089</v>
+        <v>0.2789982595093144</v>
       </c>
       <c r="M65" t="n">
-        <v>0.5984197771657594</v>
+        <v>0.4927939177153617</v>
       </c>
     </row>
     <row r="66">
@@ -3386,20 +3386,20 @@
         <v>19</v>
       </c>
       <c r="H66" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="K66" t="n">
-        <v>0.1547015445596299</v>
+        <v>0.2117880611960503</v>
       </c>
       <c r="L66" t="n">
-        <v>0.2387504263159257</v>
+        <v>0.2722420190833686</v>
       </c>
       <c r="M66" t="n">
-        <v>0.6065480291244444</v>
+        <v>0.515969919720581</v>
       </c>
     </row>
     <row r="67">
@@ -3429,20 +3429,20 @@
         <v>19</v>
       </c>
       <c r="H67" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="K67" t="n">
-        <v>0.379202506327081</v>
+        <v>0.4704832287717367</v>
       </c>
       <c r="L67" t="n">
-        <v>0.2990110197663267</v>
+        <v>0.2847197242097019</v>
       </c>
       <c r="M67" t="n">
-        <v>0.3217864739065923</v>
+        <v>0.2447970470185616</v>
       </c>
     </row>
     <row r="68">
@@ -3472,20 +3472,20 @@
         <v>19</v>
       </c>
       <c r="H68" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="K68" t="n">
-        <v>0.6109354393797052</v>
+        <v>0.7055485122793247</v>
       </c>
       <c r="L68" t="n">
-        <v>0.2368676803232337</v>
+        <v>0.1911790566141431</v>
       </c>
       <c r="M68" t="n">
-        <v>0.1521968802970611</v>
+        <v>0.1032724311065322</v>
       </c>
     </row>
     <row r="69">
@@ -3515,20 +3515,20 @@
         <v>19</v>
       </c>
       <c r="H69" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="K69" t="n">
-        <v>0.4658810888225691</v>
+        <v>0.5605789848303935</v>
       </c>
       <c r="L69" t="n">
-        <v>0.2858000085423907</v>
+        <v>0.2570806613934624</v>
       </c>
       <c r="M69" t="n">
-        <v>0.2483189026350402</v>
+        <v>0.1823403537761441</v>
       </c>
     </row>
     <row r="70">
@@ -3558,20 +3558,20 @@
         <v>19</v>
       </c>
       <c r="H70" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="K70" t="n">
-        <v>0.2425288124347328</v>
+        <v>0.3098642766995428</v>
       </c>
       <c r="L70" t="n">
-        <v>0.2839996352719883</v>
+        <v>0.297967834637324</v>
       </c>
       <c r="M70" t="n">
-        <v>0.4734715522932789</v>
+        <v>0.3921678886631332</v>
       </c>
     </row>
     <row r="71">
@@ -3601,20 +3601,20 @@
         <v>19</v>
       </c>
       <c r="H71" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="K71" t="n">
-        <v>0.4155646980246022</v>
+        <v>0.537979758574046</v>
       </c>
       <c r="L71" t="n">
-        <v>0.2952114009073173</v>
+        <v>0.2651029234782092</v>
       </c>
       <c r="M71" t="n">
-        <v>0.2892239010680805</v>
+        <v>0.1969173179477448</v>
       </c>
     </row>
     <row r="72">
@@ -3644,20 +3644,20 @@
         <v>19</v>
       </c>
       <c r="H72" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="K72" t="n">
-        <v>0.1911754119053015</v>
+        <v>0.2580780075569962</v>
       </c>
       <c r="L72" t="n">
-        <v>0.2620687730766537</v>
+        <v>0.2885591499762846</v>
       </c>
       <c r="M72" t="n">
-        <v>0.5467558150180448</v>
+        <v>0.4533628424667192</v>
       </c>
     </row>
     <row r="73">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3687,20 +3687,20 @@
         <v>19</v>
       </c>
       <c r="H73" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="K73" t="n">
-        <v>0.4453224568525129</v>
+        <v>0.5361822792056617</v>
       </c>
       <c r="L73" t="n">
-        <v>0.2901896573711127</v>
+        <v>0.2657113949314187</v>
       </c>
       <c r="M73" t="n">
-        <v>0.2644878857763744</v>
+        <v>0.1981063258629195</v>
       </c>
     </row>
     <row r="74">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
@@ -3730,20 +3730,20 @@
         <v>20</v>
       </c>
       <c r="H74" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="K74" t="n">
-        <v>0.1391425617119448</v>
+        <v>0.2164144807069361</v>
       </c>
       <c r="L74" t="n">
-        <v>0.2263985087202121</v>
+        <v>0.2742611368372364</v>
       </c>
       <c r="M74" t="n">
-        <v>0.6344589295678431</v>
+        <v>0.5093243824558275</v>
       </c>
     </row>
     <row r="75">
@@ -3773,20 +3773,20 @@
         <v>20</v>
       </c>
       <c r="H75" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="K75" t="n">
-        <v>0.3577114983535017</v>
+        <v>0.4245048828011637</v>
       </c>
       <c r="L75" t="n">
-        <v>0.2999292921678905</v>
+        <v>0.2938751686676033</v>
       </c>
       <c r="M75" t="n">
-        <v>0.3423592094786078</v>
+        <v>0.2816199485312331</v>
       </c>
     </row>
     <row r="76">
@@ -3816,20 +3816,20 @@
         <v>20</v>
       </c>
       <c r="H76" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="K76" t="n">
-        <v>0.4312217045206317</v>
+        <v>0.5323352860157592</v>
       </c>
       <c r="L76" t="n">
-        <v>0.2927724144421132</v>
+        <v>0.2669986567949056</v>
       </c>
       <c r="M76" t="n">
-        <v>0.2760058810372551</v>
+        <v>0.2006660571893352</v>
       </c>
     </row>
     <row r="77">
@@ -3859,20 +3859,20 @@
         <v>20</v>
       </c>
       <c r="H77" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="K77" t="n">
-        <v>0.5255732412274607</v>
+        <v>0.6459392409998617</v>
       </c>
       <c r="L77" t="n">
-        <v>0.2692112726275548</v>
+        <v>0.2210662963187453</v>
       </c>
       <c r="M77" t="n">
-        <v>0.2052154861449844</v>
+        <v>0.132994462681393</v>
       </c>
     </row>
     <row r="78">
@@ -3902,20 +3902,20 @@
         <v>20</v>
       </c>
       <c r="H78" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="K78" t="n">
-        <v>0.5740389140612671</v>
+        <v>0.6580609632320216</v>
       </c>
       <c r="L78" t="n">
-        <v>0.2519849355393617</v>
+        <v>0.215282727972844</v>
       </c>
       <c r="M78" t="n">
-        <v>0.1739761503993712</v>
+        <v>0.1266563087951345</v>
       </c>
     </row>
     <row r="79">
@@ -3945,20 +3945,20 @@
         <v>20</v>
       </c>
       <c r="H79" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="K79" t="n">
-        <v>0.5842480076197518</v>
+        <v>0.6871618989650046</v>
       </c>
       <c r="L79" t="n">
-        <v>0.247967453709331</v>
+        <v>0.2007775365305167</v>
       </c>
       <c r="M79" t="n">
-        <v>0.1677845386709171</v>
+        <v>0.1120605645044788</v>
       </c>
     </row>
     <row r="80">
@@ -3988,20 +3988,20 @@
         <v>20</v>
       </c>
       <c r="H80" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="K80" t="n">
-        <v>0.267746685136885</v>
+        <v>0.3603331035507989</v>
       </c>
       <c r="L80" t="n">
-        <v>0.2909649897592739</v>
+        <v>0.2998734369071976</v>
       </c>
       <c r="M80" t="n">
-        <v>0.4412883251038411</v>
+        <v>0.3397934595420035</v>
       </c>
     </row>
     <row r="81">
@@ -4031,20 +4031,20 @@
         <v>20</v>
       </c>
       <c r="H81" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="K81" t="n">
-        <v>0.4231976043418929</v>
+        <v>0.5097495988962485</v>
       </c>
       <c r="L81" t="n">
-        <v>0.2940800135790611</v>
+        <v>0.274133883985642</v>
       </c>
       <c r="M81" t="n">
-        <v>0.282722382079046</v>
+        <v>0.2161165171181095</v>
       </c>
     </row>
     <row r="82">
@@ -4074,20 +4074,20 @@
         <v>20</v>
       </c>
       <c r="H82" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="K82" t="n">
-        <v>0.2068123498139293</v>
+        <v>0.2921885686431115</v>
       </c>
       <c r="L82" t="n">
-        <v>0.2699654400960121</v>
+        <v>0.29568443183985</v>
       </c>
       <c r="M82" t="n">
-        <v>0.5232222100900586</v>
+        <v>0.4121269995170385</v>
       </c>
     </row>
     <row r="83">
@@ -4117,20 +4117,20 @@
         <v>21</v>
       </c>
       <c r="H83" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="K83" t="n">
-        <v>0.2837426140644613</v>
+        <v>0.3937466163516912</v>
       </c>
       <c r="L83" t="n">
-        <v>0.2942661996866938</v>
+        <v>0.2978166663376811</v>
       </c>
       <c r="M83" t="n">
-        <v>0.4219911862488449</v>
+        <v>0.3084367173106277</v>
       </c>
     </row>
     <row r="84">
@@ -4160,20 +4160,20 @@
         <v>21</v>
       </c>
       <c r="H84" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="K84" t="n">
-        <v>0.1936810017960019</v>
+        <v>0.2363079269775952</v>
       </c>
       <c r="L84" t="n">
-        <v>0.2634124567312444</v>
+        <v>0.2819249323191549</v>
       </c>
       <c r="M84" t="n">
-        <v>0.5429065414727536</v>
+        <v>0.4817671407032499</v>
       </c>
     </row>
     <row r="85">
@@ -4203,20 +4203,20 @@
         <v>21</v>
       </c>
       <c r="H85" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="K85" t="n">
-        <v>0.5583236002765497</v>
+        <v>0.6436550040327532</v>
       </c>
       <c r="L85" t="n">
-        <v>0.2579116910224979</v>
+        <v>0.2221386265932872</v>
       </c>
       <c r="M85" t="n">
-        <v>0.1837647087009524</v>
+        <v>0.1342063693739596</v>
       </c>
     </row>
     <row r="86">
@@ -4246,20 +4246,20 @@
         <v>21</v>
       </c>
       <c r="H86" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="K86" t="n">
-        <v>0.3635447977331161</v>
+        <v>0.4411541959466081</v>
       </c>
       <c r="L86" t="n">
-        <v>0.2997833533859957</v>
+        <v>0.2909902719346436</v>
       </c>
       <c r="M86" t="n">
-        <v>0.3366718488808884</v>
+        <v>0.2678555321187484</v>
       </c>
     </row>
     <row r="87">
@@ -4289,20 +4289,20 @@
         <v>21</v>
       </c>
       <c r="H87" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="K87" t="n">
-        <v>0.5096410328267763</v>
+        <v>0.6211312120668728</v>
       </c>
       <c r="L87" t="n">
-        <v>0.2741663994912482</v>
+        <v>0.2324067519755242</v>
       </c>
       <c r="M87" t="n">
-        <v>0.2161925676819755</v>
+        <v>0.146462035957603</v>
       </c>
     </row>
     <row r="88">
@@ -4332,20 +4332,20 @@
         <v>21</v>
       </c>
       <c r="H88" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="K88" t="n">
-        <v>0.1685115479782816</v>
+        <v>0.2182055287577473</v>
       </c>
       <c r="L88" t="n">
-        <v>0.2484503111303639</v>
+        <v>0.2750180524226773</v>
       </c>
       <c r="M88" t="n">
-        <v>0.5830381408913546</v>
+        <v>0.5067764188195754</v>
       </c>
     </row>
     <row r="89">
@@ -4375,20 +4375,20 @@
         <v>21</v>
       </c>
       <c r="H89" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="K89" t="n">
-        <v>0.2707402456675208</v>
+        <v>0.332753740440045</v>
       </c>
       <c r="L89" t="n">
-        <v>0.2916459662528502</v>
+        <v>0.2996354963899203</v>
       </c>
       <c r="M89" t="n">
-        <v>0.437613788079629</v>
+        <v>0.3676107631700348</v>
       </c>
     </row>
     <row r="90">
@@ -4418,20 +4418,20 @@
         <v>21</v>
       </c>
       <c r="H90" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="K90" t="n">
-        <v>0.3767392273830399</v>
+        <v>0.4683027040677306</v>
       </c>
       <c r="L90" t="n">
-        <v>0.2991684897693258</v>
+        <v>0.2852359266536905</v>
       </c>
       <c r="M90" t="n">
-        <v>0.3240922828476344</v>
+        <v>0.246461369278579</v>
       </c>
     </row>
     <row r="91">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
@@ -4461,20 +4461,20 @@
         <v>21</v>
       </c>
       <c r="H91" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="K91" t="n">
-        <v>0.1827373025176263</v>
+        <v>0.2567551964610502</v>
       </c>
       <c r="L91" t="n">
-        <v>0.2573133137315059</v>
+        <v>0.2882049595686385</v>
       </c>
       <c r="M91" t="n">
-        <v>0.5599493837508679</v>
+        <v>0.4550398439703114</v>
       </c>
     </row>
     <row r="92">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4504,20 +4504,20 @@
         <v>22</v>
       </c>
       <c r="H92" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="K92" t="n">
-        <v>0.5538762891184791</v>
+        <v>0.6292169876339277</v>
       </c>
       <c r="L92" t="n">
-        <v>0.2595308622936088</v>
+        <v>0.2287852329446374</v>
       </c>
       <c r="M92" t="n">
-        <v>0.1865928485879121</v>
+        <v>0.1419977794214349</v>
       </c>
     </row>
     <row r="93">
@@ -4547,20 +4547,20 @@
         <v>22</v>
       </c>
       <c r="H93" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="K93" t="n">
-        <v>0.2161060699407659</v>
+        <v>0.3230607463693158</v>
       </c>
       <c r="L93" t="n">
-        <v>0.2741294153437478</v>
+        <v>0.299099787560376</v>
       </c>
       <c r="M93" t="n">
-        <v>0.5097645147154862</v>
+        <v>0.3778394660703082</v>
       </c>
     </row>
     <row r="94">
@@ -4590,20 +4590,20 @@
         <v>22</v>
       </c>
       <c r="H94" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="K94" t="n">
-        <v>0.4228101949580751</v>
+        <v>0.5178873472279589</v>
       </c>
       <c r="L94" t="n">
-        <v>0.2941401015108269</v>
+        <v>0.2716474816850294</v>
       </c>
       <c r="M94" t="n">
-        <v>0.2830497035310979</v>
+        <v>0.2104651710870117</v>
       </c>
     </row>
     <row r="95">
@@ -4633,20 +4633,20 @@
         <v>22</v>
       </c>
       <c r="H95" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="K95" t="n">
-        <v>0.2400392398139613</v>
+        <v>0.304388541360073</v>
       </c>
       <c r="L95" t="n">
-        <v>0.2831870350357655</v>
+        <v>0.2973567423618805</v>
       </c>
       <c r="M95" t="n">
-        <v>0.4767737251502733</v>
+        <v>0.3982547162780465</v>
       </c>
     </row>
     <row r="96">
@@ -4676,20 +4676,20 @@
         <v>22</v>
       </c>
       <c r="H96" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="K96" t="n">
-        <v>0.3664106132063043</v>
+        <v>0.4695153719729291</v>
       </c>
       <c r="L96" t="n">
-        <v>0.29968304176507</v>
+        <v>0.2849498130291496</v>
       </c>
       <c r="M96" t="n">
-        <v>0.3339063450286257</v>
+        <v>0.2455348149979214</v>
       </c>
     </row>
     <row r="97">
@@ -4719,20 +4719,20 @@
         <v>22</v>
       </c>
       <c r="H97" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="K97" t="n">
-        <v>0.3026250135574229</v>
+        <v>0.4038402314195182</v>
       </c>
       <c r="L97" t="n">
-        <v>0.2971417929637279</v>
+        <v>0.2967295638952064</v>
       </c>
       <c r="M97" t="n">
-        <v>0.4002331934788492</v>
+        <v>0.2994302046852754</v>
       </c>
     </row>
     <row r="98">
@@ -4762,20 +4762,20 @@
         <v>22</v>
       </c>
       <c r="H98" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="K98" t="n">
-        <v>0.653811452314319</v>
+        <v>0.7534013336445781</v>
       </c>
       <c r="L98" t="n">
-        <v>0.2173279728654545</v>
+        <v>0.1647179985894045</v>
       </c>
       <c r="M98" t="n">
-        <v>0.1288605748202265</v>
+        <v>0.08188066776601743</v>
       </c>
     </row>
     <row r="99">
@@ -4805,20 +4805,20 @@
         <v>22</v>
       </c>
       <c r="H99" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="K99" t="n">
-        <v>0.2805437332276757</v>
+        <v>0.3911460489737638</v>
       </c>
       <c r="L99" t="n">
-        <v>0.2936715138603166</v>
+        <v>0.2980629212661509</v>
       </c>
       <c r="M99" t="n">
-        <v>0.4257847529120077</v>
+        <v>0.3107910297600854</v>
       </c>
     </row>
     <row r="100">
@@ -4848,20 +4848,20 @@
         <v>22</v>
       </c>
       <c r="H100" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="K100" t="n">
-        <v>0.5515315157947374</v>
+        <v>0.6404043789878401</v>
       </c>
       <c r="L100" t="n">
-        <v>0.2603740469769342</v>
+        <v>0.2236549194480408</v>
       </c>
       <c r="M100" t="n">
-        <v>0.1880944372283284</v>
+        <v>0.1359407015641191</v>
       </c>
     </row>
     <row r="101">
@@ -4891,20 +4891,20 @@
         <v>23</v>
       </c>
       <c r="H101" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="K101" t="n">
-        <v>0.2989470101047033</v>
+        <v>0.4059240705610874</v>
       </c>
       <c r="L101" t="n">
-        <v>0.2966646369670718</v>
+        <v>0.2964795344138862</v>
       </c>
       <c r="M101" t="n">
-        <v>0.4043883529282249</v>
+        <v>0.2975963950250264</v>
       </c>
     </row>
     <row r="102">
@@ -4934,20 +4934,20 @@
         <v>23</v>
       </c>
       <c r="H102" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="K102" t="n">
-        <v>0.3286579170881647</v>
+        <v>0.4234256036538487</v>
       </c>
       <c r="L102" t="n">
-        <v>0.2994389555361567</v>
+        <v>0.2940445183476186</v>
       </c>
       <c r="M102" t="n">
-        <v>0.3719031273756787</v>
+        <v>0.2825298779985327</v>
       </c>
     </row>
     <row r="103">
@@ -4977,20 +4977,20 @@
         <v>23</v>
       </c>
       <c r="H103" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="K103" t="n">
-        <v>0.2747043735066182</v>
+        <v>0.3302121781691001</v>
       </c>
       <c r="L103" t="n">
-        <v>0.2925023716823784</v>
+        <v>0.2995186307141127</v>
       </c>
       <c r="M103" t="n">
-        <v>0.4327932548110034</v>
+        <v>0.3702691911167872</v>
       </c>
     </row>
     <row r="104">
@@ -5020,20 +5020,20 @@
         <v>23</v>
       </c>
       <c r="H104" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="K104" t="n">
-        <v>0.3732768135283135</v>
+        <v>0.4536947175757624</v>
       </c>
       <c r="L104" t="n">
-        <v>0.2993673783779629</v>
+        <v>0.2884894398933466</v>
       </c>
       <c r="M104" t="n">
-        <v>0.3273558080937236</v>
+        <v>0.257815842530891</v>
       </c>
     </row>
     <row r="105">
@@ -5063,20 +5063,20 @@
         <v>23</v>
       </c>
       <c r="H105" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="K105" t="n">
-        <v>0.4194094701182385</v>
+        <v>0.5097535638729948</v>
       </c>
       <c r="L105" t="n">
-        <v>0.2946553816213758</v>
+        <v>0.2741326961471939</v>
       </c>
       <c r="M105" t="n">
-        <v>0.2859351482603857</v>
+        <v>0.2161137399798113</v>
       </c>
     </row>
     <row r="106">
@@ -5106,20 +5106,20 @@
         <v>23</v>
       </c>
       <c r="H106" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="K106" t="n">
-        <v>0.2247361488568964</v>
+        <v>0.2810950552183051</v>
       </c>
       <c r="L106" t="n">
-        <v>0.2776635455985381</v>
+        <v>0.2937762972889568</v>
       </c>
       <c r="M106" t="n">
-        <v>0.4976003055445655</v>
+        <v>0.4251286474927382</v>
       </c>
     </row>
     <row r="107">
@@ -5149,20 +5149,20 @@
         <v>23</v>
       </c>
       <c r="H107" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="K107" t="n">
-        <v>0.2564343067913815</v>
+        <v>0.3428718494420497</v>
       </c>
       <c r="L107" t="n">
-        <v>0.2881181153860388</v>
+        <v>0.2999385001728466</v>
       </c>
       <c r="M107" t="n">
-        <v>0.4554475778225797</v>
+        <v>0.3571896503851036</v>
       </c>
     </row>
     <row r="108">
@@ -5192,20 +5192,20 @@
         <v>23</v>
       </c>
       <c r="H108" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="K108" t="n">
-        <v>0.4883534376468253</v>
+        <v>0.5740400119135731</v>
       </c>
       <c r="L108" t="n">
-        <v>0.2801997030076547</v>
+        <v>0.2519845105097425</v>
       </c>
       <c r="M108" t="n">
-        <v>0.23144685934552</v>
+        <v>0.1739754775766844</v>
       </c>
     </row>
     <row r="109">
@@ -5219,7 +5219,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D109" s="2" t="n">
@@ -5235,20 +5235,20 @@
         <v>23</v>
       </c>
       <c r="H109" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="K109" t="n">
-        <v>0.3799122029661379</v>
+        <v>0.5024018649715086</v>
       </c>
       <c r="L109" t="n">
-        <v>0.2989632050388908</v>
+        <v>0.2762950438171579</v>
       </c>
       <c r="M109" t="n">
-        <v>0.3211245919949712</v>
+        <v>0.2213030912113335</v>
       </c>
     </row>
     <row r="110">
@@ -5278,20 +5278,20 @@
         <v>24</v>
       </c>
       <c r="H110" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="K110" t="n">
-        <v>0.4319262724900903</v>
+        <v>0.5155423443283945</v>
       </c>
       <c r="L110" t="n">
-        <v>0.2926519069571398</v>
+        <v>0.2723738708065337</v>
       </c>
       <c r="M110" t="n">
-        <v>0.27542182055277</v>
+        <v>0.2120837848650717</v>
       </c>
     </row>
     <row r="111">
@@ -5321,20 +5321,20 @@
         <v>24</v>
       </c>
       <c r="H111" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="K111" t="n">
-        <v>0.5076146211387543</v>
+        <v>0.6123610613622296</v>
       </c>
       <c r="L111" t="n">
-        <v>0.2747701123028865</v>
+        <v>0.2362511049971707</v>
       </c>
       <c r="M111" t="n">
-        <v>0.2176152665583592</v>
+        <v>0.1513878336405997</v>
       </c>
     </row>
     <row r="112">
@@ -5364,20 +5364,20 @@
         <v>24</v>
       </c>
       <c r="H112" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="K112" t="n">
-        <v>0.4820521914854841</v>
+        <v>0.57632558220782</v>
       </c>
       <c r="L112" t="n">
-        <v>0.2818516839442752</v>
+        <v>0.251096376871401</v>
       </c>
       <c r="M112" t="n">
-        <v>0.2360961245702408</v>
+        <v>0.172578040920779</v>
       </c>
     </row>
     <row r="113">
@@ -5407,20 +5407,20 @@
         <v>24</v>
       </c>
       <c r="H113" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="K113" t="n">
-        <v>0.1520856309208934</v>
+        <v>0.2035271296973503</v>
       </c>
       <c r="L113" t="n">
-        <v>0.2367831422681929</v>
+        <v>0.2684012650077295</v>
       </c>
       <c r="M113" t="n">
-        <v>0.6111312268109137</v>
+        <v>0.5280716052949201</v>
       </c>
     </row>
     <row r="114">
@@ -5450,20 +5450,20 @@
         <v>24</v>
       </c>
       <c r="H114" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="K114" t="n">
-        <v>0.2295140213461709</v>
+        <v>0.2883220287470525</v>
       </c>
       <c r="L114" t="n">
-        <v>0.279487812623664</v>
+        <v>0.2950622159152452</v>
       </c>
       <c r="M114" t="n">
-        <v>0.4909981660301652</v>
+        <v>0.4166157553377023</v>
       </c>
     </row>
     <row r="115">
@@ -5493,20 +5493,20 @@
         <v>24</v>
       </c>
       <c r="H115" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="K115" t="n">
-        <v>0.3989426077119725</v>
+        <v>0.5005438764013437</v>
       </c>
       <c r="L115" t="n">
-        <v>0.2972829084589811</v>
+        <v>0.2768287287794944</v>
       </c>
       <c r="M115" t="n">
-        <v>0.3037744838290465</v>
+        <v>0.2226273948191619</v>
       </c>
     </row>
     <row r="116">
@@ -5536,20 +5536,20 @@
         <v>24</v>
       </c>
       <c r="H116" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="K116" t="n">
-        <v>0.1595170417630635</v>
+        <v>0.2292516781850661</v>
       </c>
       <c r="L116" t="n">
-        <v>0.2422615413827801</v>
+        <v>0.2793900382201837</v>
       </c>
       <c r="M116" t="n">
-        <v>0.5982214168541563</v>
+        <v>0.4913582835947503</v>
       </c>
     </row>
     <row r="117">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5579,20 +5579,20 @@
         <v>24</v>
       </c>
       <c r="H117" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="K117" t="n">
-        <v>0.4063656650284744</v>
+        <v>0.5029978152511105</v>
       </c>
       <c r="L117" t="n">
-        <v>0.2964254398735051</v>
+        <v>0.2761227635253856</v>
       </c>
       <c r="M117" t="n">
-        <v>0.2972088950980207</v>
+        <v>0.2208794212235039</v>
       </c>
     </row>
     <row r="118">
@@ -5622,20 +5622,20 @@
         <v>24</v>
       </c>
       <c r="H118" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="K118" t="n">
-        <v>0.3881770920632688</v>
+        <v>0.5068818395714748</v>
       </c>
       <c r="L118" t="n">
-        <v>0.2983268241029482</v>
+        <v>0.274986926348497</v>
       </c>
       <c r="M118" t="n">
-        <v>0.313496083833783</v>
+        <v>0.2181312340800282</v>
       </c>
     </row>
     <row r="119">
@@ -5665,20 +5665,20 @@
         <v>25</v>
       </c>
       <c r="H119" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="K119" t="n">
-        <v>0.5098500437514136</v>
+        <v>0.6224560703409059</v>
       </c>
       <c r="L119" t="n">
-        <v>0.2741037852981452</v>
+        <v>0.2318183980361146</v>
       </c>
       <c r="M119" t="n">
-        <v>0.2160461709504412</v>
+        <v>0.1457255316229795</v>
       </c>
     </row>
     <row r="120">
@@ -5708,20 +5708,20 @@
         <v>25</v>
       </c>
       <c r="H120" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="K120" t="n">
-        <v>0.3031191147293211</v>
+        <v>0.3803779081499632</v>
       </c>
       <c r="L120" t="n">
-        <v>0.297202916300296</v>
+        <v>0.2989312367108661</v>
       </c>
       <c r="M120" t="n">
-        <v>0.3996779689703829</v>
+        <v>0.3206908551391707</v>
       </c>
     </row>
     <row r="121">
@@ -5751,20 +5751,20 @@
         <v>25</v>
       </c>
       <c r="H121" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="K121" t="n">
-        <v>0.2493588407410414</v>
+        <v>0.3405816088056083</v>
       </c>
       <c r="L121" t="n">
-        <v>0.2861103008428985</v>
+        <v>0.2998923323437475</v>
       </c>
       <c r="M121" t="n">
-        <v>0.4645308584160601</v>
+        <v>0.3595260588506441</v>
       </c>
     </row>
     <row r="122">
@@ -5794,20 +5794,20 @@
         <v>25</v>
       </c>
       <c r="H122" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="K122" t="n">
-        <v>0.2874524850613422</v>
+        <v>0.371799333506616</v>
       </c>
       <c r="L122" t="n">
-        <v>0.2949160282614923</v>
+        <v>0.2994441936439343</v>
       </c>
       <c r="M122" t="n">
-        <v>0.4176314866771654</v>
+        <v>0.3287564728494498</v>
       </c>
     </row>
     <row r="123">
@@ -5837,20 +5837,20 @@
         <v>25</v>
       </c>
       <c r="H123" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="K123" t="n">
-        <v>0.495300478061153</v>
+        <v>0.5740546499022119</v>
       </c>
       <c r="L123" t="n">
-        <v>0.2783066153943107</v>
+        <v>0.2519788433194963</v>
       </c>
       <c r="M123" t="n">
-        <v>0.2263929065445364</v>
+        <v>0.1739665067782918</v>
       </c>
     </row>
     <row r="124">
@@ -5880,20 +5880,20 @@
         <v>25</v>
       </c>
       <c r="H124" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="K124" t="n">
-        <v>0.1824099573259976</v>
+        <v>0.2335374850275316</v>
       </c>
       <c r="L124" t="n">
-        <v>0.2571215152792766</v>
+        <v>0.2809530339739136</v>
       </c>
       <c r="M124" t="n">
-        <v>0.5604685273947259</v>
+        <v>0.4855094809985548</v>
       </c>
     </row>
     <row r="125">
@@ -5923,20 +5923,20 @@
         <v>25</v>
       </c>
       <c r="H125" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="K125" t="n">
-        <v>0.3704543826646278</v>
+        <v>0.4596687631020527</v>
       </c>
       <c r="L125" t="n">
-        <v>0.2995098994609726</v>
+        <v>0.2872023801277308</v>
       </c>
       <c r="M125" t="n">
-        <v>0.3300357178743997</v>
+        <v>0.2531288567702165</v>
       </c>
     </row>
     <row r="126">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D126" s="2" t="n">
@@ -5966,20 +5966,20 @@
         <v>25</v>
       </c>
       <c r="H126" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="K126" t="n">
-        <v>0.2088859132969055</v>
+        <v>0.3086465683186355</v>
       </c>
       <c r="L126" t="n">
-        <v>0.2709275826603961</v>
+        <v>0.2978392462707382</v>
       </c>
       <c r="M126" t="n">
-        <v>0.5201865040426985</v>
+        <v>0.3935141854106265</v>
       </c>
     </row>
     <row r="127">
@@ -6009,20 +6009,20 @@
         <v>25</v>
       </c>
       <c r="H127" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="K127" t="n">
-        <v>0.3669018452631996</v>
+        <v>0.481187569462001</v>
       </c>
       <c r="L127" t="n">
-        <v>0.2996639746169557</v>
+        <v>0.2820734641382709</v>
       </c>
       <c r="M127" t="n">
-        <v>0.3334341801198447</v>
+        <v>0.236738966399728</v>
       </c>
     </row>
     <row r="128">
@@ -6052,20 +6052,20 @@
         <v>26</v>
       </c>
       <c r="H128" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="K128" t="n">
-        <v>0.2188495066822216</v>
+        <v>0.2981378648080012</v>
       </c>
       <c r="L128" t="n">
-        <v>0.2752868688591008</v>
+        <v>0.2965543846794204</v>
       </c>
       <c r="M128" t="n">
-        <v>0.5058636244586776</v>
+        <v>0.4053077505125784</v>
       </c>
     </row>
     <row r="129">
@@ -6095,20 +6095,20 @@
         <v>26</v>
       </c>
       <c r="H129" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="K129" t="n">
-        <v>0.632889440023008</v>
+        <v>0.7378607560379958</v>
       </c>
       <c r="L129" t="n">
-        <v>0.2271163018878999</v>
+        <v>0.1735384503551671</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1399942580890922</v>
+        <v>0.08860079360683704</v>
       </c>
     </row>
     <row r="130">
@@ -6138,20 +6138,20 @@
         <v>26</v>
       </c>
       <c r="H130" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="K130" t="n">
-        <v>0.5406080273067291</v>
+        <v>0.6099788982848634</v>
       </c>
       <c r="L130" t="n">
-        <v>0.2642052389797238</v>
+        <v>0.237280062162571</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1951867337135471</v>
+        <v>0.1527410395525656</v>
       </c>
     </row>
     <row r="131">
@@ -6181,20 +6181,20 @@
         <v>26</v>
       </c>
       <c r="H131" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="K131" t="n">
-        <v>0.221683836294728</v>
+        <v>0.2893448574725412</v>
       </c>
       <c r="L131" t="n">
-        <v>0.2764492294922768</v>
+        <v>0.2952312208724629</v>
       </c>
       <c r="M131" t="n">
-        <v>0.5018669342129952</v>
+        <v>0.4154239216549959</v>
       </c>
     </row>
     <row r="132">
@@ -6224,20 +6224,20 @@
         <v>26</v>
       </c>
       <c r="H132" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="K132" t="n">
-        <v>0.3898903246580792</v>
+        <v>0.4641385314036294</v>
       </c>
       <c r="L132" t="n">
-        <v>0.2981767912386434</v>
+        <v>0.2861998908987031</v>
       </c>
       <c r="M132" t="n">
-        <v>0.3119328841032775</v>
+        <v>0.2496615776976675</v>
       </c>
     </row>
     <row r="133">
@@ -6267,20 +6267,20 @@
         <v>26</v>
       </c>
       <c r="H133" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="K133" t="n">
-        <v>0.5015068839749856</v>
+        <v>0.5901958754886323</v>
       </c>
       <c r="L133" t="n">
-        <v>0.2765527659388218</v>
+        <v>0.2455675915532831</v>
       </c>
       <c r="M133" t="n">
-        <v>0.2219403500861926</v>
+        <v>0.1642365329580846</v>
       </c>
     </row>
     <row r="134">
@@ -6289,7 +6289,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6310,20 +6310,20 @@
         <v>26</v>
       </c>
       <c r="H134" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="K134" t="n">
-        <v>0.3008473863804288</v>
+        <v>0.3686750062527683</v>
       </c>
       <c r="L134" t="n">
-        <v>0.2969160717444201</v>
+        <v>0.2995906169682248</v>
       </c>
       <c r="M134" t="n">
-        <v>0.402236541875151</v>
+        <v>0.331734376779007</v>
       </c>
     </row>
     <row r="135">
@@ -6353,20 +6353,20 @@
         <v>26</v>
       </c>
       <c r="H135" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="K135" t="n">
-        <v>0.5846245343561962</v>
+        <v>0.680295347938806</v>
       </c>
       <c r="L135" t="n">
-        <v>0.2478168146744306</v>
+        <v>0.2042772583022106</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1675586509693732</v>
+        <v>0.1154273937589835</v>
       </c>
     </row>
     <row r="136">
@@ -6396,20 +6396,20 @@
         <v>26</v>
       </c>
       <c r="H136" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="K136" t="n">
-        <v>0.3277096303356375</v>
+        <v>0.4272644382124617</v>
       </c>
       <c r="L136" t="n">
-        <v>0.2993872649624104</v>
+        <v>0.2934322513961727</v>
       </c>
       <c r="M136" t="n">
-        <v>0.3729031047019521</v>
+        <v>0.2793033103913656</v>
       </c>
     </row>
     <row r="137">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D137" s="2" t="n">
@@ -6439,20 +6439,20 @@
         <v>27</v>
       </c>
       <c r="H137" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="K137" t="n">
-        <v>0.2791652330174446</v>
+        <v>0.3903034588441489</v>
       </c>
       <c r="L137" t="n">
-        <v>0.2934053165503132</v>
+        <v>0.2981396914640999</v>
       </c>
       <c r="M137" t="n">
-        <v>0.4274294504322422</v>
+        <v>0.3115568496917512</v>
       </c>
     </row>
     <row r="138">
@@ -6482,20 +6482,20 @@
         <v>27</v>
       </c>
       <c r="H138" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="K138" t="n">
-        <v>0.6200441646671866</v>
+        <v>0.6940491558074644</v>
       </c>
       <c r="L138" t="n">
-        <v>0.2328880136836027</v>
+        <v>0.197220549312711</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1470678216492107</v>
+        <v>0.1087302948798246</v>
       </c>
     </row>
     <row r="139">
@@ -6525,20 +6525,20 @@
         <v>27</v>
       </c>
       <c r="H139" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="K139" t="n">
-        <v>0.2347785448975955</v>
+        <v>0.3212560025396265</v>
       </c>
       <c r="L139" t="n">
-        <v>0.2813921096181421</v>
+        <v>0.2989727912829688</v>
       </c>
       <c r="M139" t="n">
-        <v>0.4838293454842625</v>
+        <v>0.3797712061774047</v>
       </c>
     </row>
     <row r="140">
@@ -6568,20 +6568,20 @@
         <v>27</v>
       </c>
       <c r="H140" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="K140" t="n">
-        <v>0.3818275521479724</v>
+        <v>0.4982515498463784</v>
       </c>
       <c r="L140" t="n">
-        <v>0.298828731094471</v>
+        <v>0.27747998138495</v>
       </c>
       <c r="M140" t="n">
-        <v>0.3193437167575567</v>
+        <v>0.2242684687686716</v>
       </c>
     </row>
     <row r="141">
@@ -6611,20 +6611,20 @@
         <v>27</v>
       </c>
       <c r="H141" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="K141" t="n">
-        <v>0.3501944930316552</v>
+        <v>0.4459377169072294</v>
       </c>
       <c r="L141" t="n">
-        <v>0.2999999546175439</v>
+        <v>0.29006888000106</v>
       </c>
       <c r="M141" t="n">
-        <v>0.3498055523508009</v>
+        <v>0.2639934030917106</v>
       </c>
     </row>
     <row r="142">
@@ -6654,20 +6654,20 @@
         <v>27</v>
       </c>
       <c r="H142" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="K142" t="n">
-        <v>0.3463799558345773</v>
+        <v>0.4728749297325466</v>
       </c>
       <c r="L142" t="n">
-        <v>0.2999842056499563</v>
+        <v>0.28414456594905</v>
       </c>
       <c r="M142" t="n">
-        <v>0.3536358385154664</v>
+        <v>0.2429805043184033</v>
       </c>
     </row>
     <row r="143">
@@ -6697,20 +6697,20 @@
         <v>27</v>
       </c>
       <c r="H143" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="K143" t="n">
-        <v>0.2555684874491286</v>
+        <v>0.3662589092085803</v>
       </c>
       <c r="L143" t="n">
-        <v>0.2878819866555238</v>
+        <v>0.29968881973763</v>
       </c>
       <c r="M143" t="n">
-        <v>0.4565495258953476</v>
+        <v>0.3340522710537898</v>
       </c>
     </row>
     <row r="144">
@@ -6740,20 +6740,20 @@
         <v>27</v>
       </c>
       <c r="H144" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="K144" t="n">
-        <v>0.241569095828006</v>
+        <v>0.31264699246115</v>
       </c>
       <c r="L144" t="n">
-        <v>0.2836891539765767</v>
+        <v>0.2982461675131204</v>
       </c>
       <c r="M144" t="n">
-        <v>0.4747417501954173</v>
+        <v>0.3891068400257297</v>
       </c>
     </row>
     <row r="145">
@@ -6783,20 +6783,20 @@
         <v>27</v>
       </c>
       <c r="H145" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="K145" t="n">
-        <v>0.344257217819756</v>
+        <v>0.427838105372361</v>
       </c>
       <c r="L145" t="n">
-        <v>0.299960149443296</v>
+        <v>0.2933383942495227</v>
       </c>
       <c r="M145" t="n">
-        <v>0.355782632736948</v>
+        <v>0.2788235003781163</v>
       </c>
     </row>
     <row r="146">
@@ -6826,20 +6826,20 @@
         <v>28</v>
       </c>
       <c r="H146" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="K146" t="n">
-        <v>0.2398817775691607</v>
+        <v>0.3031438721163544</v>
       </c>
       <c r="L146" t="n">
-        <v>0.2831348501331576</v>
+        <v>0.2972059604916513</v>
       </c>
       <c r="M146" t="n">
-        <v>0.4769833722976817</v>
+        <v>0.3996501673919943</v>
       </c>
     </row>
     <row r="147">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6869,20 +6869,20 @@
         <v>28</v>
       </c>
       <c r="H147" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="K147" t="n">
-        <v>0.4101898313334256</v>
+        <v>0.4745751115028962</v>
       </c>
       <c r="L147" t="n">
-        <v>0.2959408607496345</v>
+        <v>0.2837300355521901</v>
       </c>
       <c r="M147" t="n">
-        <v>0.29386930791694</v>
+        <v>0.2416948529449137</v>
       </c>
     </row>
     <row r="148">
@@ -6912,20 +6912,20 @@
         <v>28</v>
       </c>
       <c r="H148" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="K148" t="n">
-        <v>0.3413754353890739</v>
+        <v>0.4085632786932787</v>
       </c>
       <c r="L148" t="n">
-        <v>0.2999098043438323</v>
+        <v>0.2961504929594709</v>
       </c>
       <c r="M148" t="n">
-        <v>0.3587147602670938</v>
+        <v>0.2952862283472504</v>
       </c>
     </row>
     <row r="149">
@@ -6955,20 +6955,20 @@
         <v>28</v>
       </c>
       <c r="H149" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="K149" t="n">
-        <v>0.579113697237807</v>
+        <v>0.6406346638130617</v>
       </c>
       <c r="L149" t="n">
-        <v>0.2500041113061466</v>
+        <v>0.2235478769800752</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1708821914560463</v>
+        <v>0.1358174592068632</v>
       </c>
     </row>
     <row r="150">
@@ -6998,20 +6998,20 @@
         <v>28</v>
       </c>
       <c r="H150" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1549131158610299</v>
+        <v>0.206219739188959</v>
       </c>
       <c r="L150" t="n">
-        <v>0.2389076735153038</v>
+        <v>0.2696869101362948</v>
       </c>
       <c r="M150" t="n">
-        <v>0.6061792106236663</v>
+        <v>0.5240933506747463</v>
       </c>
     </row>
     <row r="151">
@@ -7041,20 +7041,20 @@
         <v>28</v>
       </c>
       <c r="H151" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="K151" t="n">
-        <v>0.3763642979205268</v>
+        <v>0.4764710941341224</v>
       </c>
       <c r="L151" t="n">
-        <v>0.2991912974055775</v>
+        <v>0.2832622403678138</v>
       </c>
       <c r="M151" t="n">
-        <v>0.3244444046738957</v>
+        <v>0.2402666654980639</v>
       </c>
     </row>
     <row r="152">
@@ -7084,20 +7084,20 @@
         <v>28</v>
       </c>
       <c r="H152" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="K152" t="n">
-        <v>0.3042199751463563</v>
+        <v>0.3773471595748198</v>
       </c>
       <c r="L152" t="n">
-        <v>0.2973365814064059</v>
+        <v>0.2991308551824365</v>
       </c>
       <c r="M152" t="n">
-        <v>0.3984434434472379</v>
+        <v>0.3235219852427437</v>
       </c>
     </row>
     <row r="153">
@@ -7127,20 +7127,20 @@
         <v>28</v>
       </c>
       <c r="H153" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="K153" t="n">
-        <v>0.5903612473678728</v>
+        <v>0.6931467165975987</v>
       </c>
       <c r="L153" t="n">
-        <v>0.2455002512430808</v>
+        <v>0.1976892631209843</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1641385013890464</v>
+        <v>0.1091640202814169</v>
       </c>
     </row>
     <row r="154">
@@ -7170,20 +7170,20 @@
         <v>28</v>
       </c>
       <c r="H154" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="K154" t="n">
-        <v>0.3852879237125538</v>
+        <v>0.5214379553946605</v>
       </c>
       <c r="L154" t="n">
-        <v>0.298565828591293</v>
+        <v>0.2705325424343785</v>
       </c>
       <c r="M154" t="n">
-        <v>0.3161462476961533</v>
+        <v>0.2080295021709609</v>
       </c>
     </row>
     <row r="155">
@@ -7213,20 +7213,20 @@
         <v>29</v>
       </c>
       <c r="H155" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="K155" t="n">
-        <v>0.3961782108326893</v>
+        <v>0.4867094481336934</v>
       </c>
       <c r="L155" t="n">
-        <v>0.2975737682808696</v>
+        <v>0.2806367227358628</v>
       </c>
       <c r="M155" t="n">
-        <v>0.3062480208864412</v>
+        <v>0.2326538291304437</v>
       </c>
     </row>
     <row r="156">
@@ -7256,20 +7256,20 @@
         <v>29</v>
       </c>
       <c r="H156" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1242724363485034</v>
+        <v>0.1786308051722544</v>
       </c>
       <c r="L156" t="n">
-        <v>0.2130292830826991</v>
+        <v>0.2548666553083659</v>
       </c>
       <c r="M156" t="n">
-        <v>0.6626982805687975</v>
+        <v>0.5665025395193798</v>
       </c>
     </row>
     <row r="157">
@@ -7299,20 +7299,20 @@
         <v>29</v>
       </c>
       <c r="H157" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="K157" t="n">
-        <v>0.2599712424761585</v>
+        <v>0.3503489601519189</v>
       </c>
       <c r="L157" t="n">
-        <v>0.2890554650714647</v>
+        <v>0.2999998539333342</v>
       </c>
       <c r="M157" t="n">
-        <v>0.4509732924523767</v>
+        <v>0.349651185914747</v>
       </c>
     </row>
     <row r="158">
@@ -7342,20 +7342,20 @@
         <v>29</v>
       </c>
       <c r="H158" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="K158" t="n">
-        <v>0.343895347373893</v>
+        <v>0.4359256467975456</v>
       </c>
       <c r="L158" t="n">
-        <v>0.2999549492275261</v>
+        <v>0.2919506745677899</v>
       </c>
       <c r="M158" t="n">
-        <v>0.3561497033985809</v>
+        <v>0.2721236786346645</v>
       </c>
     </row>
     <row r="159">
@@ -7385,20 +7385,20 @@
         <v>29</v>
       </c>
       <c r="H159" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="K159" t="n">
-        <v>0.3836015484641948</v>
+        <v>0.5062428574910812</v>
       </c>
       <c r="L159" t="n">
-        <v>0.2986971473415487</v>
+        <v>0.2751753359354863</v>
       </c>
       <c r="M159" t="n">
-        <v>0.3177013041942565</v>
+        <v>0.2185818065734325</v>
       </c>
     </row>
     <row r="160">
@@ -7428,20 +7428,20 @@
         <v>29</v>
       </c>
       <c r="H160" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="K160" t="n">
-        <v>0.3034594185165867</v>
+        <v>0.3725829925052242</v>
       </c>
       <c r="L160" t="n">
-        <v>0.2972446063232084</v>
+        <v>0.2994040535001492</v>
       </c>
       <c r="M160" t="n">
-        <v>0.399295975160205</v>
+        <v>0.3280129539946266</v>
       </c>
     </row>
     <row r="161">
@@ -7471,20 +7471,20 @@
         <v>29</v>
       </c>
       <c r="H161" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="K161" t="n">
-        <v>0.2538519189548862</v>
+        <v>0.3371181083554506</v>
       </c>
       <c r="L161" t="n">
-        <v>0.2874060073467593</v>
+        <v>0.2997977292106789</v>
       </c>
       <c r="M161" t="n">
-        <v>0.4587420736983545</v>
+        <v>0.3630841624338704</v>
       </c>
     </row>
     <row r="162">
@@ -7493,7 +7493,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7514,20 +7514,20 @@
         <v>29</v>
       </c>
       <c r="H162" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="K162" t="n">
-        <v>0.5294649043312537</v>
+        <v>0.6207391044229364</v>
       </c>
       <c r="L162" t="n">
-        <v>0.2679457171813004</v>
+        <v>0.2325805016896263</v>
       </c>
       <c r="M162" t="n">
-        <v>0.2025893784874458</v>
+        <v>0.1466803938874373</v>
       </c>
     </row>
     <row r="163">
@@ -7557,20 +7557,20 @@
         <v>29</v>
       </c>
       <c r="H163" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="K163" t="n">
-        <v>0.4606252901726083</v>
+        <v>0.5795628752367857</v>
       </c>
       <c r="L163" t="n">
-        <v>0.2869906739969948</v>
+        <v>0.2498272363663998</v>
       </c>
       <c r="M163" t="n">
-        <v>0.2523840358303969</v>
+        <v>0.1706098883968145</v>
       </c>
     </row>
     <row r="164">
@@ -7584,7 +7584,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D164" s="2" t="n">
@@ -7600,20 +7600,20 @@
         <v>30</v>
       </c>
       <c r="H164" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="K164" t="n">
-        <v>0.3797115868982244</v>
+        <v>0.5009679048840059</v>
       </c>
       <c r="L164" t="n">
-        <v>0.2989768318037684</v>
+        <v>0.2767073901430048</v>
       </c>
       <c r="M164" t="n">
-        <v>0.3213115812980072</v>
+        <v>0.2223247049729893</v>
       </c>
     </row>
     <row r="165">
@@ -7643,20 +7643,20 @@
         <v>30</v>
       </c>
       <c r="H165" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="K165" t="n">
-        <v>0.4235561405118238</v>
+        <v>0.5272452687234246</v>
       </c>
       <c r="L165" t="n">
-        <v>0.2940241521677989</v>
+        <v>0.2686701508599272</v>
       </c>
       <c r="M165" t="n">
-        <v>0.2824197073203774</v>
+        <v>0.2040845804166482</v>
       </c>
     </row>
     <row r="166">
@@ -7686,20 +7686,20 @@
         <v>30</v>
       </c>
       <c r="H166" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="K166" t="n">
-        <v>0.5079619876293564</v>
+        <v>0.5796563349479279</v>
       </c>
       <c r="L166" t="n">
-        <v>0.2746670558004005</v>
+        <v>0.2497904027785161</v>
       </c>
       <c r="M166" t="n">
-        <v>0.2173709565702431</v>
+        <v>0.170553262273556</v>
       </c>
     </row>
     <row r="167">
@@ -7729,20 +7729,20 @@
         <v>30</v>
       </c>
       <c r="H167" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1402324288196717</v>
+        <v>0.1905831358331262</v>
       </c>
       <c r="L167" t="n">
-        <v>0.2273161344860945</v>
+        <v>0.2617466443316675</v>
       </c>
       <c r="M167" t="n">
-        <v>0.6324514366942338</v>
+        <v>0.5476702198352063</v>
       </c>
     </row>
     <row r="168">
@@ -7772,20 +7772,20 @@
         <v>30</v>
       </c>
       <c r="H168" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="K168" t="n">
-        <v>0.3363135499384166</v>
+        <v>0.4560094748622147</v>
       </c>
       <c r="L168" t="n">
-        <v>0.299771447951403</v>
+        <v>0.2879979695957049</v>
       </c>
       <c r="M168" t="n">
-        <v>0.3639150021101805</v>
+        <v>0.2559925555420804</v>
       </c>
     </row>
     <row r="169">
@@ -7815,20 +7815,20 @@
         <v>30</v>
       </c>
       <c r="H169" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="K169" t="n">
-        <v>0.4620393875522461</v>
+        <v>0.5579539907205255</v>
       </c>
       <c r="L169" t="n">
-        <v>0.2866748702863424</v>
+        <v>0.258047246294725</v>
       </c>
       <c r="M169" t="n">
-        <v>0.2512857421614115</v>
+        <v>0.1839987629847495</v>
       </c>
     </row>
     <row r="170">
@@ -7858,20 +7858,20 @@
         <v>30</v>
       </c>
       <c r="H170" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="K170" t="n">
-        <v>0.4414965853071355</v>
+        <v>0.5323759649423254</v>
       </c>
       <c r="L170" t="n">
-        <v>0.2909256709632952</v>
+        <v>0.2669851524593641</v>
       </c>
       <c r="M170" t="n">
-        <v>0.2675777437295694</v>
+        <v>0.2006388825983105</v>
       </c>
     </row>
     <row r="171">
@@ -7901,20 +7901,20 @@
         <v>30</v>
       </c>
       <c r="H171" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="K171" t="n">
-        <v>0.3189943256002161</v>
+        <v>0.399567870557184</v>
       </c>
       <c r="L171" t="n">
-        <v>0.2988013487688345</v>
+        <v>0.2972149625698659</v>
       </c>
       <c r="M171" t="n">
-        <v>0.3822043256309495</v>
+        <v>0.3032171668729501</v>
       </c>
     </row>
     <row r="172">
@@ -7944,20 +7944,20 @@
         <v>30</v>
       </c>
       <c r="H172" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="K172" t="n">
-        <v>0.3701124065014912</v>
+        <v>0.4411692452077963</v>
       </c>
       <c r="L172" t="n">
-        <v>0.2995259627481549</v>
+        <v>0.2909874368783124</v>
       </c>
       <c r="M172" t="n">
-        <v>0.330361630750354</v>
+        <v>0.2678433179138914</v>
       </c>
     </row>
     <row r="173">
@@ -7987,20 +7987,20 @@
         <v>31</v>
       </c>
       <c r="H173" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="K173" t="n">
-        <v>0.4093518923429625</v>
+        <v>0.5220313170565486</v>
       </c>
       <c r="L173" t="n">
-        <v>0.2960495047678607</v>
+        <v>0.2703444547430929</v>
       </c>
       <c r="M173" t="n">
-        <v>0.2945986028891768</v>
+        <v>0.2076242282003585</v>
       </c>
     </row>
     <row r="174">
@@ -8030,20 +8030,20 @@
         <v>31</v>
       </c>
       <c r="H174" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="K174" t="n">
-        <v>0.3932708002226313</v>
+        <v>0.5013183410502895</v>
       </c>
       <c r="L174" t="n">
-        <v>0.2978627706423894</v>
+        <v>0.2766069056157876</v>
       </c>
       <c r="M174" t="n">
-        <v>0.3088664291349793</v>
+        <v>0.2220747533339229</v>
       </c>
     </row>
     <row r="175">
@@ -8073,20 +8073,20 @@
         <v>31</v>
       </c>
       <c r="H175" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="K175" t="n">
-        <v>0.4738644542871879</v>
+        <v>0.5772976737576185</v>
       </c>
       <c r="L175" t="n">
-        <v>0.2839038759412599</v>
+        <v>0.2507166543445285</v>
       </c>
       <c r="M175" t="n">
-        <v>0.2422316697715522</v>
+        <v>0.171985671897853</v>
       </c>
     </row>
     <row r="176">
@@ -8116,20 +8116,20 @@
         <v>31</v>
       </c>
       <c r="H176" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="K176" t="n">
-        <v>0.2447588495304044</v>
+        <v>0.3283129969568226</v>
       </c>
       <c r="L176" t="n">
-        <v>0.2847077565288972</v>
+        <v>0.2994204248078378</v>
       </c>
       <c r="M176" t="n">
-        <v>0.4705333939406984</v>
+        <v>0.3722665782353396</v>
       </c>
     </row>
     <row r="177">
@@ -8159,20 +8159,20 @@
         <v>31</v>
       </c>
       <c r="H177" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="K177" t="n">
-        <v>0.3717040034714061</v>
+        <v>0.4642968593596437</v>
       </c>
       <c r="L177" t="n">
-        <v>0.2994489835107783</v>
+        <v>0.2861637667327015</v>
       </c>
       <c r="M177" t="n">
-        <v>0.3288470130178156</v>
+        <v>0.2495393739076548</v>
       </c>
     </row>
     <row r="178">
@@ -8202,20 +8202,20 @@
         <v>31</v>
       </c>
       <c r="H178" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1679051490976398</v>
+        <v>0.220952635145151</v>
       </c>
       <c r="L178" t="n">
-        <v>0.2480477670387773</v>
+        <v>0.2761525887443654</v>
       </c>
       <c r="M178" t="n">
-        <v>0.5840470838635829</v>
+        <v>0.5028947761104837</v>
       </c>
     </row>
     <row r="179">
@@ -8245,20 +8245,20 @@
         <v>31</v>
       </c>
       <c r="H179" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="K179" t="n">
-        <v>0.3810311982790748</v>
+        <v>0.4763945848063306</v>
       </c>
       <c r="L179" t="n">
-        <v>0.2988856024259503</v>
+        <v>0.2832812299369465</v>
       </c>
       <c r="M179" t="n">
-        <v>0.3200831992949749</v>
+        <v>0.2403241852567229</v>
       </c>
     </row>
     <row r="180">
@@ -8267,7 +8267,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8288,20 +8288,20 @@
         <v>31</v>
       </c>
       <c r="H180" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="K180" t="n">
-        <v>0.56800263878421</v>
+        <v>0.6261247087988298</v>
       </c>
       <c r="L180" t="n">
-        <v>0.2542988146737131</v>
+        <v>0.230178881010586</v>
       </c>
       <c r="M180" t="n">
-        <v>0.177698546542077</v>
+        <v>0.1436964101905842</v>
       </c>
     </row>
     <row r="181">
@@ -8331,20 +8331,20 @@
         <v>31</v>
       </c>
       <c r="H181" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1731772923641227</v>
+        <v>0.238209478012112</v>
       </c>
       <c r="L181" t="n">
-        <v>0.251478541753323</v>
+        <v>0.2825747966207552</v>
       </c>
       <c r="M181" t="n">
-        <v>0.5753441658825544</v>
+        <v>0.4792157253671329</v>
       </c>
     </row>
     <row r="182">
@@ -8374,20 +8374,20 @@
         <v>32</v>
       </c>
       <c r="H182" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="K182" t="n">
-        <v>0.3626353354231096</v>
+        <v>0.4798471789615267</v>
       </c>
       <c r="L182" t="n">
-        <v>0.2998112688897247</v>
+        <v>0.2824149280881445</v>
       </c>
       <c r="M182" t="n">
-        <v>0.3375533956871659</v>
+        <v>0.2377378929503288</v>
       </c>
     </row>
     <row r="183">
@@ -8417,20 +8417,20 @@
         <v>32</v>
       </c>
       <c r="H183" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="K183" t="n">
-        <v>0.349635557688211</v>
+        <v>0.4526436799955298</v>
       </c>
       <c r="L183" t="n">
-        <v>0.299999840548421</v>
+        <v>0.2887095586655252</v>
       </c>
       <c r="M183" t="n">
-        <v>0.350364601763368</v>
+        <v>0.2586467613389451</v>
       </c>
     </row>
     <row r="184">
@@ -8460,20 +8460,20 @@
         <v>32</v>
       </c>
       <c r="H184" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="K184" t="n">
-        <v>0.458951287748911</v>
+        <v>0.5570479235624974</v>
       </c>
       <c r="L184" t="n">
-        <v>0.287360162515039</v>
+        <v>0.2583787927867784</v>
       </c>
       <c r="M184" t="n">
-        <v>0.2536885497360499</v>
+        <v>0.1845732836507241</v>
       </c>
     </row>
     <row r="185">
@@ -8503,20 +8503,20 @@
         <v>32</v>
       </c>
       <c r="H185" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="K185" t="n">
-        <v>0.5000923943058044</v>
+        <v>0.6112260104524753</v>
       </c>
       <c r="L185" t="n">
-        <v>0.2769576248055874</v>
+        <v>0.2367422001930581</v>
       </c>
       <c r="M185" t="n">
-        <v>0.2229499808886082</v>
+        <v>0.1520317893544666</v>
       </c>
     </row>
     <row r="186">
@@ -8546,20 +8546,20 @@
         <v>32</v>
       </c>
       <c r="H186" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="K186" t="n">
-        <v>0.4611953128989075</v>
+        <v>0.5293312758120464</v>
       </c>
       <c r="L186" t="n">
-        <v>0.2868637783086184</v>
+        <v>0.26798952604612</v>
       </c>
       <c r="M186" t="n">
-        <v>0.2519409087924741</v>
+        <v>0.2026791981418335</v>
       </c>
     </row>
     <row r="187">
@@ -8589,20 +8589,20 @@
         <v>32</v>
       </c>
       <c r="H187" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="K187" t="n">
-        <v>0.4293319045918896</v>
+        <v>0.5264759869177031</v>
       </c>
       <c r="L187" t="n">
-        <v>0.2930911314023135</v>
+        <v>0.2689196058560734</v>
       </c>
       <c r="M187" t="n">
-        <v>0.2775769640057969</v>
+        <v>0.2046044072262234</v>
       </c>
     </row>
     <row r="188">
@@ -8632,20 +8632,20 @@
         <v>32</v>
       </c>
       <c r="H188" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="K188" t="n">
-        <v>0.466624698443569</v>
+        <v>0.5924744219449205</v>
       </c>
       <c r="L188" t="n">
-        <v>0.2856278281128865</v>
+        <v>0.2446368416371034</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2477474734435446</v>
+        <v>0.1628887364179761</v>
       </c>
     </row>
     <row r="189">
@@ -8659,7 +8659,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D189" s="2" t="n">
@@ -8675,20 +8675,20 @@
         <v>32</v>
       </c>
       <c r="H189" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1563349487170481</v>
+        <v>0.214636523616255</v>
       </c>
       <c r="L189" t="n">
-        <v>0.2399572626249496</v>
+        <v>0.2734961560436784</v>
       </c>
       <c r="M189" t="n">
-        <v>0.6037077886580023</v>
+        <v>0.5118673203400665</v>
       </c>
     </row>
     <row r="190">
@@ -8718,20 +8718,20 @@
         <v>32</v>
       </c>
       <c r="H190" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="K190" t="n">
-        <v>0.6625155491426349</v>
+        <v>0.7359538385789017</v>
       </c>
       <c r="L190" t="n">
-        <v>0.2131185022372393</v>
+        <v>0.174606014103504</v>
       </c>
       <c r="M190" t="n">
-        <v>0.1243659486201258</v>
+        <v>0.08944014731759431</v>
       </c>
     </row>
     <row r="191">
@@ -8745,7 +8745,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="D191" s="2" t="n">
@@ -8761,20 +8761,20 @@
         <v>33</v>
       </c>
       <c r="H191" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="K191" t="n">
-        <v>0.1697029345511076</v>
+        <v>0.2449888147994752</v>
       </c>
       <c r="L191" t="n">
-        <v>0.2492351322758204</v>
+        <v>0.2847797252402961</v>
       </c>
       <c r="M191" t="n">
-        <v>0.581061933173072</v>
+        <v>0.4702314599602287</v>
       </c>
     </row>
     <row r="192">
@@ -8804,20 +8804,20 @@
         <v>33</v>
       </c>
       <c r="H192" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2614309675307077</v>
+        <v>0.3252902522662465</v>
       </c>
       <c r="L192" t="n">
-        <v>0.2894296672287635</v>
+        <v>0.299244748427852</v>
       </c>
       <c r="M192" t="n">
-        <v>0.4491393652405288</v>
+        <v>0.3754649993059015</v>
       </c>
     </row>
     <row r="193">
@@ -8847,20 +8847,20 @@
         <v>33</v>
       </c>
       <c r="H193" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1882264511217566</v>
+        <v>0.261433825059235</v>
       </c>
       <c r="L193" t="n">
-        <v>0.2604476337774383</v>
+        <v>0.2894303925659726</v>
       </c>
       <c r="M193" t="n">
-        <v>0.5513259151008051</v>
+        <v>0.4491357823747925</v>
       </c>
     </row>
     <row r="194">
@@ -8890,20 +8890,20 @@
         <v>33</v>
       </c>
       <c r="H194" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1640200923804584</v>
+        <v>0.2138834594830162</v>
       </c>
       <c r="L194" t="n">
-        <v>0.245418838565505</v>
+        <v>0.2731680282634016</v>
       </c>
       <c r="M194" t="n">
-        <v>0.5905610690540366</v>
+        <v>0.5129485122535822</v>
       </c>
     </row>
     <row r="195">
@@ -8933,20 +8933,20 @@
         <v>33</v>
       </c>
       <c r="H195" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2266766330238059</v>
+        <v>0.3128149829039913</v>
       </c>
       <c r="L195" t="n">
-        <v>0.2784156210158474</v>
+        <v>0.298262283065541</v>
       </c>
       <c r="M195" t="n">
-        <v>0.4949077459603466</v>
+        <v>0.3889227340304677</v>
       </c>
     </row>
     <row r="196">
@@ -8976,20 +8976,20 @@
         <v>33</v>
       </c>
       <c r="H196" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2292278265948771</v>
+        <v>0.2952490541760303</v>
       </c>
       <c r="L196" t="n">
-        <v>0.2793811351329068</v>
+        <v>0.2961450692443697</v>
       </c>
       <c r="M196" t="n">
-        <v>0.491391038272216</v>
+        <v>0.4086058765796001</v>
       </c>
     </row>
     <row r="197">
@@ -9019,20 +9019,20 @@
         <v>33</v>
       </c>
       <c r="H197" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="K197" t="n">
-        <v>0.3197731807113519</v>
+        <v>0.4470472007410347</v>
       </c>
       <c r="L197" t="n">
-        <v>0.2988619387538578</v>
+        <v>0.2898494030340416</v>
       </c>
       <c r="M197" t="n">
-        <v>0.3813648805347903</v>
+        <v>0.2631033962249237</v>
       </c>
     </row>
     <row r="198">
@@ -9062,20 +9062,20 @@
         <v>33</v>
       </c>
       <c r="H198" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2003436463284332</v>
+        <v>0.2601694136171323</v>
       </c>
       <c r="L198" t="n">
-        <v>0.2668382132290816</v>
+        <v>0.2891066975980729</v>
       </c>
       <c r="M198" t="n">
-        <v>0.5328181404424852</v>
+        <v>0.4507238887847947</v>
       </c>
     </row>
     <row r="199">
@@ -9105,20 +9105,20 @@
         <v>33</v>
       </c>
       <c r="H199" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="K199" t="n">
-        <v>0.4703075578671614</v>
+        <v>0.5381181386227646</v>
       </c>
       <c r="L199" t="n">
-        <v>0.2847616007059766</v>
+        <v>0.2650558957878468</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2449308414268621</v>
+        <v>0.1968259655893886</v>
       </c>
     </row>
     <row r="200">
@@ -9127,7 +9127,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9148,20 +9148,20 @@
         <v>34</v>
       </c>
       <c r="H200" t="n">
-        <v>1496.55432129</v>
+        <v>1485.96704102</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>1362.94787598</v>
+        <v>1358.72314453</v>
       </c>
       <c r="K200" t="n">
-        <v>0.5534914031865471</v>
+        <v>0.6366511733458308</v>
       </c>
       <c r="L200" t="n">
-        <v>0.2596697671079238</v>
+        <v>0.2253913723704113</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1868388297055291</v>
+        <v>0.1379574542837579</v>
       </c>
     </row>
     <row r="201">
@@ -9191,20 +9191,20 @@
         <v>34</v>
       </c>
       <c r="H201" t="n">
-        <v>1329.29504395</v>
+        <v>1316.48522949</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>1344.63952637</v>
+        <v>1343.34448242</v>
       </c>
       <c r="K201" t="n">
-        <v>0.3282240627830021</v>
+        <v>0.4034353629425493</v>
       </c>
       <c r="L201" t="n">
-        <v>0.2994155966962367</v>
+        <v>0.2967771362052312</v>
       </c>
       <c r="M201" t="n">
-        <v>0.3723603405207612</v>
+        <v>0.2997875008522195</v>
       </c>
     </row>
     <row r="202">
@@ -9234,20 +9234,20 @@
         <v>34</v>
       </c>
       <c r="H202" t="n">
-        <v>1458.47766113</v>
+        <v>1448.21691895</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>1433.02734375</v>
+        <v>1426.69799805</v>
       </c>
       <c r="K202" t="n">
-        <v>0.3873625871774007</v>
+        <v>0.4778265230286834</v>
       </c>
       <c r="L202" t="n">
-        <v>0.298395988655985</v>
+        <v>0.2829242606213753</v>
       </c>
       <c r="M202" t="n">
-        <v>0.3142414241666144</v>
+        <v>0.2392492163499412</v>
       </c>
     </row>
     <row r="203">
@@ -9277,20 +9277,20 @@
         <v>34</v>
       </c>
       <c r="H203" t="n">
-        <v>1516.86767578</v>
+        <v>1522.40673828</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>1362.69458008</v>
+        <v>1363.98974609</v>
       </c>
       <c r="K203" t="n">
-        <v>0.5844236745300115</v>
+        <v>0.6790795072142131</v>
       </c>
       <c r="L203" t="n">
-        <v>0.2478971953990741</v>
+        <v>0.2048920497412265</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1676791300709144</v>
+        <v>0.1160284430445604</v>
       </c>
     </row>
     <row r="204">
@@ -9320,20 +9320,20 @@
         <v>34</v>
       </c>
       <c r="H204" t="n">
-        <v>1444.6595459</v>
+        <v>1450.38317871</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>1358.69006348</v>
+        <v>1353.15112305</v>
       </c>
       <c r="K204" t="n">
-        <v>0.4800771101321364</v>
+        <v>0.5933952808414733</v>
       </c>
       <c r="L204" t="n">
-        <v>0.2823565568893096</v>
+        <v>0.2442589067333965</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2375663329785541</v>
+        <v>0.1623458124251302</v>
       </c>
     </row>
     <row r="205">
@@ -9363,20 +9363,20 @@
         <v>34</v>
       </c>
       <c r="H205" t="n">
-        <v>1517.00280762</v>
+        <v>1523.33239746</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>1378.66040039</v>
+        <v>1369.93603516</v>
       </c>
       <c r="K205" t="n">
-        <v>0.5606729967774541</v>
+        <v>0.6724389210097891</v>
       </c>
       <c r="L205" t="n">
-        <v>0.2570458775618316</v>
+        <v>0.2082236288699515</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1822811256607143</v>
+        <v>0.1193374501202594</v>
       </c>
     </row>
     <row r="206">
@@ -9406,20 +9406,20 @@
         <v>34</v>
       </c>
       <c r="H206" t="n">
-        <v>1353.35571289</v>
+        <v>1366.16577148</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>1411.82556152</v>
+        <v>1406.10205078</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2708098690778262</v>
+        <v>0.3838017564195274</v>
       </c>
       <c r="L206" t="n">
-        <v>0.2916614514813434</v>
+        <v>0.298681874238013</v>
       </c>
       <c r="M206" t="n">
-        <v>0.4375286794408304</v>
+        <v>0.3175163693424597</v>
       </c>
     </row>
     <row r="207">
@@ -9449,20 +9449,20 @@
         <v>34</v>
       </c>
       <c r="H207" t="n">
-        <v>1531.90197754</v>
+        <v>1536.12670898</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>1307.86877441</v>
+        <v>1318.12963867</v>
       </c>
       <c r="K207" t="n">
-        <v>0.6825089715104455</v>
+        <v>0.7515736835975255</v>
       </c>
       <c r="L207" t="n">
-        <v>0.2031541438949198</v>
+        <v>0.1657663369300792</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1143368845946346</v>
+        <v>0.08265997947239523</v>
       </c>
     </row>
     <row r="208">
@@ -9492,20 +9492,20 @@
         <v>34</v>
       </c>
       <c r="H208" t="n">
-        <v>1455.95666504</v>
+        <v>1466.54394531</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>1384.68530273</v>
+        <v>1393.40991211</v>
       </c>
       <c r="K208" t="n">
-        <v>0.4572919823117447</v>
+        <v>0.5573281625186524</v>
       </c>
       <c r="L208" t="n">
-        <v>0.2877217226669793</v>
+        <v>0.2582763630473794</v>
       </c>
       <c r="M208" t="n">
-        <v>0.254986295021276</v>
+        <v>0.1843954744339682</v>
       </c>
     </row>
   </sheetData>
